--- a/ЗАВОДЫ/Останкино/2025/заказы/филиалы и опт/2025/07,25/01,07,25 Ост КИ филиалы/3 машина на 07,07 Бердянск_Донецк_Луганск_Мелитополь_Поляков + Доброцен-Луг + СЫРЫ/Заказ Новое Время 07,07. Бердянск№2.xlsx
+++ b/ЗАВОДЫ/Останкино/2025/заказы/филиалы и опт/2025/07,25/01,07,25 Ост КИ филиалы/3 машина на 07,07 Бердянск_Донецк_Луганск_Мелитополь_Поляков + Доброцен-Луг + СЫРЫ/Заказ Новое Время 07,07. Бердянск№2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\NV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\Останкино\2025\заказы\филиалы и опт\2025\07,25\01,07,25 Ост КИ филиалы\3 машина на 07,07 Бердянск_Донецк_Луганск_Мелитополь_Поляков + Доброцен-Луг + СЫРЫ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F0E34D-6C5F-4C28-8387-5C5AD8E73CB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95D5276-8D74-436A-92DE-7C2347D1B850}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1521,14 +1521,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K1643"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O112" sqref="O112"/>
+      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I122" sqref="I122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="K9" s="28"/>
     </row>
-    <row r="10" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="16.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="62"/>
       <c r="B10" s="47" t="s">
         <v>19</v>
@@ -1668,7 +1668,7 @@
       <c r="I10" s="47"/>
       <c r="J10" s="48"/>
     </row>
-    <row r="11" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="15" customFormat="1" ht="16.5" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="60" t="str">
         <f t="shared" ref="A11:A42" si="0">RIGHT(D11,4)</f>
         <v>7149</v>
@@ -1697,7 +1697,7 @@
       <c r="J11" s="29"/>
       <c r="K11" s="27"/>
     </row>
-    <row r="12" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A12" s="60" t="str">
         <f t="shared" si="0"/>
         <v>4063</v>
@@ -1729,7 +1729,7 @@
       </c>
       <c r="J12" s="29"/>
     </row>
-    <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="60" t="str">
         <f t="shared" si="0"/>
         <v>6333</v>
@@ -1759,7 +1759,7 @@
       </c>
       <c r="J13" s="29"/>
     </row>
-    <row r="14" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="60" t="str">
         <f t="shared" si="0"/>
         <v>4558</v>
@@ -1783,7 +1783,7 @@
       <c r="I14" s="14"/>
       <c r="J14" s="29"/>
     </row>
-    <row r="15" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="60" t="str">
         <f t="shared" si="0"/>
         <v>4574</v>
@@ -1813,7 +1813,7 @@
       </c>
       <c r="J15" s="29"/>
     </row>
-    <row r="16" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="60" t="str">
         <f t="shared" si="0"/>
         <v>6877</v>
@@ -1837,7 +1837,7 @@
       <c r="I16" s="14"/>
       <c r="J16" s="29"/>
     </row>
-    <row r="17" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="60" t="str">
         <f t="shared" si="0"/>
         <v>6878</v>
@@ -1861,7 +1861,7 @@
       <c r="I17" s="14"/>
       <c r="J17" s="29"/>
     </row>
-    <row r="18" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="60" t="str">
         <f t="shared" si="0"/>
         <v>6861</v>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="J18" s="29"/>
     </row>
-    <row r="19" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="60" t="str">
         <f t="shared" si="0"/>
         <v>6340</v>
@@ -1917,7 +1917,7 @@
       <c r="I19" s="14"/>
       <c r="J19" s="29"/>
     </row>
-    <row r="20" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="60" t="str">
         <f t="shared" si="0"/>
         <v>6341</v>
@@ -1943,7 +1943,7 @@
       <c r="I20" s="78"/>
       <c r="J20" s="78"/>
     </row>
-    <row r="21" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="60" t="str">
         <f t="shared" si="0"/>
         <v>6862</v>
@@ -1973,7 +1973,7 @@
       </c>
       <c r="J21" s="29"/>
     </row>
-    <row r="22" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="60" t="str">
         <f t="shared" si="0"/>
         <v>4813</v>
@@ -2003,7 +2003,7 @@
       </c>
       <c r="J22" s="29"/>
     </row>
-    <row r="23" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="60" t="str">
         <f t="shared" si="0"/>
         <v>6392</v>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="J24" s="29"/>
     </row>
-    <row r="25" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="60" t="str">
         <f t="shared" si="0"/>
         <v>6353</v>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="J25" s="29"/>
     </row>
-    <row r="26" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="60" t="str">
         <f t="shared" si="0"/>
         <v>6324</v>
@@ -2125,7 +2125,7 @@
       </c>
       <c r="J26" s="29"/>
     </row>
-    <row r="27" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="60" t="str">
         <f t="shared" si="0"/>
         <v>7126</v>
@@ -2183,7 +2183,7 @@
       </c>
       <c r="J28" s="29"/>
     </row>
-    <row r="29" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="60" t="str">
         <f t="shared" si="0"/>
         <v>7125</v>
@@ -2209,7 +2209,7 @@
       <c r="I29" s="14"/>
       <c r="J29" s="29"/>
     </row>
-    <row r="30" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="16.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="60" t="str">
         <f t="shared" si="0"/>
         <v>6888</v>
@@ -2235,7 +2235,7 @@
       <c r="I30" s="14"/>
       <c r="J30" s="29"/>
     </row>
-    <row r="31" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="16.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2252,7 +2252,7 @@
       <c r="I31" s="47"/>
       <c r="J31" s="48"/>
     </row>
-    <row r="32" spans="1:11" s="69" customFormat="1" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" s="69" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="60" t="str">
         <f t="shared" si="0"/>
         <v>7077</v>
@@ -2285,7 +2285,7 @@
       <c r="J32" s="68"/>
       <c r="K32" s="27"/>
     </row>
-    <row r="33" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" s="15" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="60" t="str">
         <f t="shared" si="0"/>
         <v>6602</v>
@@ -2312,7 +2312,7 @@
       <c r="J33" s="29"/>
       <c r="K33" s="27"/>
     </row>
-    <row r="34" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" s="15" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="60" t="str">
         <f t="shared" si="0"/>
         <v>6822</v>
@@ -2339,7 +2339,7 @@
       <c r="J34" s="29"/>
       <c r="K34" s="27"/>
     </row>
-    <row r="35" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" s="15" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="60" t="str">
         <f t="shared" si="0"/>
         <v>6303</v>
@@ -2370,7 +2370,7 @@
       <c r="J35" s="29"/>
       <c r="K35" s="27"/>
     </row>
-    <row r="36" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" s="15" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="60" t="str">
         <f t="shared" si="0"/>
         <v>5819</v>
@@ -2401,7 +2401,7 @@
       <c r="J36" s="29"/>
       <c r="K36" s="27"/>
     </row>
-    <row r="37" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" s="15" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="60" t="str">
         <f t="shared" si="0"/>
         <v>6770</v>
@@ -2428,7 +2428,7 @@
       <c r="J37" s="29"/>
       <c r="K37" s="27"/>
     </row>
-    <row r="38" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" s="15" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="60" t="str">
         <f t="shared" si="0"/>
         <v>6768</v>
@@ -2455,7 +2455,7 @@
       <c r="J38" s="29"/>
       <c r="K38" s="27"/>
     </row>
-    <row r="39" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" s="15" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="60" t="str">
         <f t="shared" si="0"/>
         <v>6762</v>
@@ -2482,7 +2482,7 @@
       <c r="J39" s="29"/>
       <c r="K39" s="27"/>
     </row>
-    <row r="40" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" s="15" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="60" t="str">
         <f t="shared" si="0"/>
         <v>6765</v>
@@ -2509,7 +2509,7 @@
       <c r="J40" s="29"/>
       <c r="K40" s="27"/>
     </row>
-    <row r="41" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" s="15" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="60" t="str">
         <f t="shared" si="0"/>
         <v>6759</v>
@@ -2536,7 +2536,7 @@
       <c r="J41" s="29"/>
       <c r="K41" s="27"/>
     </row>
-    <row r="42" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" s="15" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="60" t="str">
         <f t="shared" si="0"/>
         <v>6616</v>
@@ -2563,7 +2563,7 @@
       <c r="J42" s="29"/>
       <c r="K42" s="27"/>
     </row>
-    <row r="43" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="60" t="str">
         <f t="shared" ref="A43:A74" si="2">RIGHT(D43,4)</f>
         <v>7082</v>
@@ -2593,7 +2593,7 @@
       </c>
       <c r="J43" s="29"/>
     </row>
-    <row r="44" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="60" t="str">
         <f t="shared" si="2"/>
         <v>6767</v>
@@ -2617,7 +2617,7 @@
       <c r="I44" s="14"/>
       <c r="J44" s="29"/>
     </row>
-    <row r="45" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="60" t="str">
         <f t="shared" si="2"/>
         <v>7070</v>
@@ -2641,7 +2641,7 @@
       <c r="I45" s="14"/>
       <c r="J45" s="29"/>
     </row>
-    <row r="46" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" s="15" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="60" t="str">
         <f t="shared" si="2"/>
         <v>6661</v>
@@ -2672,7 +2672,7 @@
       <c r="J46" s="29"/>
       <c r="K46" s="27"/>
     </row>
-    <row r="47" spans="1:11" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" s="15" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="60" t="str">
         <f t="shared" si="2"/>
         <v>6475</v>
@@ -2703,7 +2703,7 @@
       <c r="J47" s="29"/>
       <c r="K47" s="27"/>
     </row>
-    <row r="48" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="60" t="str">
         <f t="shared" si="2"/>
         <v>6713</v>
@@ -2733,7 +2733,7 @@
       </c>
       <c r="J48" s="29"/>
     </row>
-    <row r="49" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="60" t="str">
         <f t="shared" si="2"/>
         <v>7257</v>
@@ -2763,7 +2763,7 @@
       </c>
       <c r="J49" s="29"/>
     </row>
-    <row r="50" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="60" t="str">
         <f t="shared" si="2"/>
         <v>6909</v>
@@ -2789,7 +2789,7 @@
       <c r="I50" s="14"/>
       <c r="J50" s="29"/>
     </row>
-    <row r="51" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="60" t="str">
         <f t="shared" si="2"/>
         <v>6764</v>
@@ -2851,7 +2851,7 @@
       </c>
       <c r="J52" s="29"/>
     </row>
-    <row r="53" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="60" t="str">
         <f t="shared" si="2"/>
         <v>7075</v>
@@ -2875,7 +2875,7 @@
       <c r="I53" s="14"/>
       <c r="J53" s="29"/>
     </row>
-    <row r="54" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="60" t="str">
         <f t="shared" si="2"/>
         <v>7073</v>
@@ -2901,7 +2901,7 @@
       <c r="I54" s="14"/>
       <c r="J54" s="29"/>
     </row>
-    <row r="55" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="60" t="str">
         <f t="shared" si="2"/>
         <v>6761</v>
@@ -2963,7 +2963,7 @@
       </c>
       <c r="J56" s="29"/>
     </row>
-    <row r="57" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="60" t="str">
         <f t="shared" si="2"/>
         <v>7276</v>
@@ -2989,7 +2989,7 @@
       <c r="I57" s="14"/>
       <c r="J57" s="29"/>
     </row>
-    <row r="58" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" ht="16.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="60" t="str">
         <f t="shared" si="2"/>
         <v>7066</v>
@@ -3019,7 +3019,7 @@
       </c>
       <c r="J58" s="29"/>
     </row>
-    <row r="59" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" ht="16.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="60" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -3036,7 +3036,7 @@
       <c r="I59" s="47"/>
       <c r="J59" s="48"/>
     </row>
-    <row r="60" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="16.5" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A60" s="60" t="str">
         <f t="shared" si="2"/>
         <v>7001</v>
@@ -3066,7 +3066,7 @@
       </c>
       <c r="J60" s="78"/>
     </row>
-    <row r="61" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="60" t="str">
         <f t="shared" si="2"/>
         <v>6527</v>
@@ -3096,7 +3096,7 @@
       </c>
       <c r="J61" s="29"/>
     </row>
-    <row r="62" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="60" t="str">
         <f t="shared" si="2"/>
         <v>6550</v>
@@ -3122,7 +3122,7 @@
       <c r="I62" s="14"/>
       <c r="J62" s="29"/>
     </row>
-    <row r="63" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" ht="16.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="60" t="str">
         <f t="shared" si="2"/>
         <v>6608</v>
@@ -3152,7 +3152,7 @@
       </c>
       <c r="J63" s="29"/>
     </row>
-    <row r="64" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" ht="16.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="60" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -3169,7 +3169,7 @@
       <c r="I64" s="47"/>
       <c r="J64" s="48"/>
     </row>
-    <row r="65" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="16.5" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A65" s="60" t="str">
         <f t="shared" si="2"/>
         <v>6586</v>
@@ -3195,7 +3195,7 @@
       <c r="I65" s="14"/>
       <c r="J65" s="29"/>
     </row>
-    <row r="66" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="60" t="str">
         <f t="shared" si="2"/>
         <v>7232</v>
@@ -3223,7 +3223,7 @@
       </c>
       <c r="J66" s="29"/>
     </row>
-    <row r="67" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="60" t="str">
         <f t="shared" si="2"/>
         <v>7241</v>
@@ -3253,7 +3253,7 @@
       </c>
       <c r="J67" s="29"/>
     </row>
-    <row r="68" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="60" t="str">
         <f t="shared" si="2"/>
         <v>7154</v>
@@ -3281,7 +3281,7 @@
       </c>
       <c r="J68" s="29"/>
     </row>
-    <row r="69" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="60" t="str">
         <f t="shared" si="2"/>
         <v>6787</v>
@@ -3311,7 +3311,7 @@
       </c>
       <c r="J69" s="78"/>
     </row>
-    <row r="70" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="60" t="str">
         <f t="shared" si="2"/>
         <v>6697</v>
@@ -3341,7 +3341,7 @@
       </c>
       <c r="J70" s="29"/>
     </row>
-    <row r="71" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="60" t="str">
         <f t="shared" si="2"/>
         <v>7237</v>
@@ -3371,7 +3371,7 @@
       </c>
       <c r="J71" s="29"/>
     </row>
-    <row r="72" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="60" t="str">
         <f t="shared" si="2"/>
         <v>7236</v>
@@ -3401,7 +3401,7 @@
       </c>
       <c r="J72" s="29"/>
     </row>
-    <row r="73" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="60" t="str">
         <f t="shared" si="2"/>
         <v>7169</v>
@@ -3429,7 +3429,7 @@
       </c>
       <c r="J73" s="29"/>
     </row>
-    <row r="74" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="60" t="str">
         <f t="shared" si="2"/>
         <v>7166</v>
@@ -3487,7 +3487,7 @@
       </c>
       <c r="J75" s="29"/>
     </row>
-    <row r="76" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="60" t="str">
         <f t="shared" si="4"/>
         <v>7133</v>
@@ -3515,7 +3515,7 @@
       </c>
       <c r="J76" s="73"/>
     </row>
-    <row r="77" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="60" t="str">
         <f t="shared" si="4"/>
         <v>6791</v>
@@ -3543,7 +3543,7 @@
       </c>
       <c r="J77" s="73"/>
     </row>
-    <row r="78" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="60" t="str">
         <f t="shared" si="4"/>
         <v>6792</v>
@@ -3571,7 +3571,7 @@
       </c>
       <c r="J78" s="73"/>
     </row>
-    <row r="79" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="60" t="str">
         <f t="shared" si="4"/>
         <v>6793</v>
@@ -3599,7 +3599,7 @@
       </c>
       <c r="J79" s="73"/>
     </row>
-    <row r="80" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="60" t="str">
         <f t="shared" si="4"/>
         <v>7131</v>
@@ -3627,7 +3627,7 @@
       </c>
       <c r="J80" s="73"/>
     </row>
-    <row r="81" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="60" t="str">
         <f t="shared" si="4"/>
         <v>7144</v>
@@ -3655,7 +3655,7 @@
       </c>
       <c r="J81" s="73"/>
     </row>
-    <row r="82" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="60" t="str">
         <f t="shared" si="4"/>
         <v>7146</v>
@@ -3683,7 +3683,7 @@
       </c>
       <c r="J82" s="73"/>
     </row>
-    <row r="83" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="60" t="str">
         <f t="shared" si="4"/>
         <v>7135</v>
@@ -3711,7 +3711,7 @@
       </c>
       <c r="J83" s="73"/>
     </row>
-    <row r="84" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="60" t="str">
         <f t="shared" si="4"/>
         <v>7134</v>
@@ -3739,7 +3739,7 @@
       </c>
       <c r="J84" s="73"/>
     </row>
-    <row r="85" spans="1:11" s="69" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" s="69" customFormat="1" ht="16.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="60" t="str">
         <f t="shared" si="4"/>
         <v>6807</v>
@@ -3768,7 +3768,7 @@
       <c r="J85" s="73"/>
       <c r="K85" s="27"/>
     </row>
-    <row r="86" spans="1:11" s="69" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" s="69" customFormat="1" ht="16.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="60" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3786,7 +3786,7 @@
       <c r="J86" s="48"/>
       <c r="K86" s="27"/>
     </row>
-    <row r="87" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="60" t="str">
         <f t="shared" si="4"/>
         <v>5706</v>
@@ -3818,7 +3818,7 @@
       </c>
       <c r="J87" s="29"/>
     </row>
-    <row r="88" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="60" t="str">
         <f t="shared" si="4"/>
         <v>5931</v>
@@ -3848,7 +3848,7 @@
       </c>
       <c r="J88" s="68"/>
     </row>
-    <row r="89" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="60" t="str">
         <f t="shared" si="4"/>
         <v>6834</v>
@@ -3878,7 +3878,7 @@
       </c>
       <c r="J89" s="78"/>
     </row>
-    <row r="90" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="60" t="str">
         <f t="shared" si="4"/>
         <v>6454</v>
@@ -3908,7 +3908,7 @@
       </c>
       <c r="J90" s="29"/>
     </row>
-    <row r="91" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="60" t="str">
         <f t="shared" si="4"/>
         <v>5708</v>
@@ -3938,7 +3938,7 @@
       </c>
       <c r="J91" s="29"/>
     </row>
-    <row r="92" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="60" t="str">
         <f t="shared" si="4"/>
         <v>4993</v>
@@ -3968,7 +3968,7 @@
       </c>
       <c r="J92" s="29"/>
     </row>
-    <row r="93" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="60" t="str">
         <f t="shared" si="4"/>
         <v>5682</v>
@@ -3998,7 +3998,7 @@
       </c>
       <c r="J93" s="29"/>
     </row>
-    <row r="94" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="60" t="str">
         <f t="shared" si="4"/>
         <v>7147</v>
@@ -4024,7 +4024,7 @@
       <c r="I94" s="14"/>
       <c r="J94" s="29"/>
     </row>
-    <row r="95" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="60" t="str">
         <f t="shared" si="4"/>
         <v>7229</v>
@@ -4050,7 +4050,7 @@
       <c r="I95" s="14"/>
       <c r="J95" s="29"/>
     </row>
-    <row r="96" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="60" t="str">
         <f t="shared" si="4"/>
         <v>7150</v>
@@ -4076,7 +4076,7 @@
       <c r="I96" s="14"/>
       <c r="J96" s="29"/>
     </row>
-    <row r="97" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="60" t="str">
         <f t="shared" si="4"/>
         <v>7227</v>
@@ -4102,7 +4102,7 @@
       <c r="I97" s="14"/>
       <c r="J97" s="29"/>
     </row>
-    <row r="98" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="60" t="str">
         <f t="shared" si="4"/>
         <v>7225</v>
@@ -4128,7 +4128,7 @@
       <c r="I98" s="14"/>
       <c r="J98" s="29"/>
     </row>
-    <row r="99" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="60" t="str">
         <f t="shared" si="4"/>
         <v>7226</v>
@@ -4154,7 +4154,7 @@
       <c r="I99" s="14"/>
       <c r="J99" s="29"/>
     </row>
-    <row r="100" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="60" t="str">
         <f t="shared" si="4"/>
         <v>7228</v>
@@ -4180,7 +4180,7 @@
       <c r="I100" s="14"/>
       <c r="J100" s="29"/>
     </row>
-    <row r="101" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="60" t="str">
         <f t="shared" si="4"/>
         <v>4117</v>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="J101" s="29"/>
     </row>
-    <row r="102" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="60" t="str">
         <f t="shared" si="4"/>
         <v>5483</v>
@@ -4240,7 +4240,7 @@
       </c>
       <c r="J102" s="29"/>
     </row>
-    <row r="103" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="60" t="str">
         <f t="shared" si="4"/>
         <v>6453</v>
@@ -4270,7 +4270,7 @@
       </c>
       <c r="J103" s="29"/>
     </row>
-    <row r="104" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="60" t="str">
         <f t="shared" si="4"/>
         <v>6228</v>
@@ -4296,7 +4296,7 @@
       <c r="I104" s="14"/>
       <c r="J104" s="29"/>
     </row>
-    <row r="105" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" ht="16.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="60" t="str">
         <f t="shared" si="4"/>
         <v>3287</v>
@@ -4326,7 +4326,7 @@
       </c>
       <c r="J105" s="29"/>
     </row>
-    <row r="106" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" ht="16.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="60" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -4343,7 +4343,7 @@
       <c r="I106" s="47"/>
       <c r="J106" s="48"/>
     </row>
-    <row r="107" spans="1:10" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" ht="16.5" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A107" s="60" t="str">
         <f t="shared" ref="A107:A118" si="6">RIGHT(D107,4)</f>
         <v>6866</v>
@@ -4367,7 +4367,7 @@
       <c r="I107" s="14"/>
       <c r="J107" s="29"/>
     </row>
-    <row r="108" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="60" t="str">
         <f t="shared" si="6"/>
         <v>3215</v>
@@ -4399,7 +4399,7 @@
       </c>
       <c r="J108" s="29"/>
     </row>
-    <row r="109" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="60" t="str">
         <f t="shared" si="6"/>
         <v>5452</v>
@@ -4429,7 +4429,7 @@
       </c>
       <c r="J109" s="29"/>
     </row>
-    <row r="110" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="60" t="str">
         <f t="shared" si="6"/>
         <v>5495</v>
@@ -4459,7 +4459,7 @@
       </c>
       <c r="J110" s="29"/>
     </row>
-    <row r="111" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="60" t="str">
         <f t="shared" si="6"/>
         <v>6495</v>
@@ -4489,7 +4489,7 @@
       </c>
       <c r="J111" s="29"/>
     </row>
-    <row r="112" spans="1:10" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" ht="16.5" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="60" t="str">
         <f t="shared" si="6"/>
         <v/>
@@ -4506,7 +4506,7 @@
       <c r="I112" s="47"/>
       <c r="J112" s="48"/>
     </row>
-    <row r="113" spans="1:11" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" ht="16.5" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A113" s="60" t="str">
         <f t="shared" si="6"/>
         <v>6448</v>
@@ -4536,7 +4536,7 @@
       </c>
       <c r="J113" s="29"/>
     </row>
-    <row r="114" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="60" t="str">
         <f t="shared" si="6"/>
         <v>6620</v>
@@ -4560,7 +4560,7 @@
       <c r="I114" s="14"/>
       <c r="J114" s="29"/>
     </row>
-    <row r="115" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="60" t="str">
         <f t="shared" si="6"/>
         <v>7090</v>
@@ -4590,7 +4590,7 @@
       </c>
       <c r="J115" s="29"/>
     </row>
-    <row r="116" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="60" t="str">
         <f t="shared" si="6"/>
         <v>7187</v>
@@ -4616,7 +4616,7 @@
       <c r="I116" s="14"/>
       <c r="J116" s="29"/>
     </row>
-    <row r="117" spans="1:11" s="72" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" s="72" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="60" t="str">
         <f t="shared" si="6"/>
         <v>7103</v>
@@ -4647,7 +4647,7 @@
       <c r="J117" s="78"/>
       <c r="K117" s="27"/>
     </row>
-    <row r="118" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" ht="16.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="60" t="str">
         <f t="shared" si="6"/>
         <v>6872</v>
@@ -19934,7 +19934,13 @@
       <c r="J1643" s="21"/>
     </row>
   </sheetData>
-  <autoFilter ref="A9:J119" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A9:J119" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="4">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="G3:J3"/>
